--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1963.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1963.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.008944360987942</v>
+        <v>1.10312032699585</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.902527809143066</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>9.266632080078125</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.402068614959717</v>
       </c>
       <c r="E1">
-        <v>1.194701363931475</v>
+        <v>1.289701342582703</v>
       </c>
     </row>
   </sheetData>
